--- a/办公/六月份/第三周/拷贝进入客服网（文件表）.xlsx
+++ b/办公/六月份/第三周/拷贝进入客服网（文件表）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22192" windowHeight="9855"/>
+    <workbookView windowWidth="27922" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,140 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>软件&amp;文件（名）</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>开发工具</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA 2023.3.3</t>
+  </si>
+  <si>
+    <t>编写前后端程序</t>
+  </si>
+  <si>
+    <t>Navicat Premium Lite 17</t>
+  </si>
+  <si>
+    <t>数据库可视化工具</t>
+  </si>
+  <si>
+    <t>Another-Redis-Desktop-Manager.1.6.4.exe</t>
+  </si>
+  <si>
+    <t>redis可视化工具</t>
+  </si>
+  <si>
+    <t>Apifox-2.5.0.exe</t>
+  </si>
+  <si>
+    <t>接口、请求调试工具</t>
+  </si>
+  <si>
+    <t>ChromeStandaloneSetup.exe</t>
+  </si>
+  <si>
+    <t>谷歌浏览器</t>
+  </si>
+  <si>
+    <t>Everything-1.4.1.1024.x64-Setup.exe</t>
+  </si>
+  <si>
+    <t>搜索文件工具</t>
+  </si>
+  <si>
+    <t>npp.8.6.2.Installer.x64.exe</t>
+  </si>
+  <si>
+    <t>记事本工具</t>
+  </si>
+  <si>
+    <t>开发环境</t>
+  </si>
+  <si>
+    <t>微软常用运行库合集 2024.03.13.exe</t>
+  </si>
+  <si>
+    <t>微软常用库</t>
+  </si>
+  <si>
+    <t>nginx-1.26.0.zip</t>
+  </si>
+  <si>
+    <t>nginx环境</t>
+  </si>
+  <si>
+    <t>Redis-x64-5.0.14.1.zip</t>
+  </si>
+  <si>
+    <t>reids环境</t>
+  </si>
+  <si>
+    <t>Git-2.43.0-64-bit.exe</t>
+  </si>
+  <si>
+    <t>git环境</t>
+  </si>
+  <si>
+    <t>jdk-21_windows-x64_bin.exe</t>
+  </si>
+  <si>
+    <t>jdk21环境</t>
+  </si>
+  <si>
+    <t>node-v20.10.0-x64.msi</t>
+  </si>
+  <si>
+    <t>node.js环境</t>
+  </si>
+  <si>
+    <t>系统镜像</t>
+  </si>
+  <si>
+    <t>cn_windows_multipoint_server_2012_standard_x64_dvd_1191676.iso</t>
+  </si>
+  <si>
+    <t>windows_server2012镜像</t>
+  </si>
+  <si>
+    <t>压缩包</t>
+  </si>
+  <si>
+    <t>项目源码.zip</t>
+  </si>
+  <si>
+    <t>项目源代码</t>
+  </si>
+  <si>
+    <t>PLSQLDeveloper10_ha.zip</t>
+  </si>
+  <si>
+    <t>PLSQL安装包</t>
+  </si>
+  <si>
+    <t>instantclient_11_2.rar</t>
+  </si>
+  <si>
+    <t>Oracle_Instant_Client安装包</t>
+  </si>
+  <si>
+    <t>Oracle19c系统安装包.zip</t>
+  </si>
+  <si>
+    <t>oracle环境</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
@@ -381,12 +515,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,7 +699,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,34 +711,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,9 +823,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1173,14 +1371,206 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.283185840708" customWidth="1"/>
+    <col min="2" max="2" width="69.8318584070797" customWidth="1"/>
+    <col min="3" max="3" width="28.8053097345133" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
